--- a/metrics/ImplementierungsZeiten.xlsx
+++ b/metrics/ImplementierungsZeiten.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A001663\LAPTOP\Marc\S\BreakOut\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A001663\LAPTOP\Marc\S\GitHub\SpaceInvaders\Space_Invaders\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -150,9 +150,6 @@
     <t>Level 2</t>
   </si>
   <si>
-    <t>Open</t>
-  </si>
-  <si>
     <t>Level 3</t>
   </si>
   <si>
@@ -201,12 +198,6 @@
     <t>Pausemenü</t>
   </si>
   <si>
-    <t>Pending</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>Trefferanzeige</t>
   </si>
   <si>
@@ -229,6 +220,15 @@
   </si>
   <si>
     <t>Sprint 7 (1.12-7.12)</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>discarded</t>
+  </si>
+  <si>
+    <t>Alpha</t>
   </si>
 </sst>
 </file>
@@ -693,13 +693,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="73.7109375" customWidth="1"/>
+    <col min="1" max="1" width="61.28515625" customWidth="1"/>
     <col min="2" max="2" width="32.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -723,7 +723,7 @@
     </row>
     <row r="3" spans="1:4" ht="21">
       <c r="A3" s="19" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -809,7 +809,7 @@
     </row>
     <row r="11" spans="1:4" ht="21">
       <c r="A11" s="19" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B11" s="20"/>
       <c r="C11" s="20"/>
@@ -889,7 +889,7 @@
     </row>
     <row r="18" spans="1:4" ht="15.75">
       <c r="A18" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>18</v>
@@ -901,7 +901,7 @@
     </row>
     <row r="19" spans="1:4" ht="15.75">
       <c r="A19" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>18</v>
@@ -913,7 +913,7 @@
     </row>
     <row r="20" spans="1:4" ht="15.75">
       <c r="A20" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>18</v>
@@ -925,7 +925,7 @@
     </row>
     <row r="21" spans="1:4" ht="15.75">
       <c r="A21" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>10</v>
@@ -937,7 +937,7 @@
     </row>
     <row r="22" spans="1:4" ht="15.75">
       <c r="A22" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>18</v>
@@ -949,7 +949,7 @@
     </row>
     <row r="23" spans="1:4" ht="15.75">
       <c r="A23" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>18</v>
@@ -967,7 +967,7 @@
     </row>
     <row r="25" spans="1:4" ht="21">
       <c r="A25" s="22" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -975,10 +975,10 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C26" s="15" t="s">
         <v>5</v>
@@ -987,70 +987,70 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="13" t="s">
-        <v>40</v>
+      <c r="C27" s="11" t="s">
+        <v>48</v>
       </c>
       <c r="D27" s="2"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>23</v>
+        <v>44</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>5</v>
       </c>
       <c r="D28" s="3"/>
     </row>
     <row r="29" spans="1:4" ht="15.75">
       <c r="A29" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>40</v>
+        <v>46</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>5</v>
       </c>
       <c r="D29" s="3"/>
     </row>
     <row r="30" spans="1:4" ht="15.75">
       <c r="A30" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>23</v>
+        <v>46</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>5</v>
       </c>
       <c r="D30" s="4"/>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>40</v>
+        <v>45</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>5</v>
       </c>
       <c r="D31" s="4"/>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="14" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C32" s="15" t="s">
         <v>5</v>
@@ -1059,21 +1059,21 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>23</v>
+        <v>47</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C34" s="15" t="s">
         <v>5</v>
@@ -1081,10 +1081,10 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C35" s="15" t="s">
         <v>5</v>
@@ -1092,10 +1092,10 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C36" s="15" t="s">
         <v>5</v>
@@ -1103,10 +1103,10 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C37" s="15" t="s">
         <v>5</v>
